--- a/data/trans_orig/P34A_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P34A_R-Estudios-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>503473</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>471103</v>
+        <v>473293</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>534733</v>
+        <v>535113</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4960903892340247</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.4641956861413289</v>
+        <v>0.4663534738842269</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5268922296061569</v>
+        <v>0.5272671369599842</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>652</v>
@@ -765,19 +765,19 @@
         <v>672539</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>634092</v>
+        <v>634187</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>709248</v>
+        <v>706501</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.520087217641825</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.4903552800187965</v>
+        <v>0.4904289267576456</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5484749694941778</v>
+        <v>0.5463508018030028</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1153</v>
@@ -786,19 +786,19 @@
         <v>1176012</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1128062</v>
+        <v>1133384</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1227946</v>
+        <v>1235695</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.509535292264754</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4887599422823967</v>
+        <v>0.4910658346097388</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5320372489515647</v>
+        <v>0.535394781342505</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>511408</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>480148</v>
+        <v>479768</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>543778</v>
+        <v>541588</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.5039096107659753</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.4731077703938431</v>
+        <v>0.4727328630400158</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.5358043138586714</v>
+        <v>0.533646526115773</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>618</v>
@@ -836,19 +836,19 @@
         <v>620588</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>583879</v>
+        <v>586626</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>659035</v>
+        <v>658940</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.479912782358175</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.4515250305058222</v>
+        <v>0.4536491981969973</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.5096447199812035</v>
+        <v>0.5095710732423544</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1139</v>
@@ -857,19 +857,19 @@
         <v>1131996</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1080062</v>
+        <v>1072313</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1179946</v>
+        <v>1174624</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.490464707735246</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.4679627510484358</v>
+        <v>0.4646052186574953</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.5112400577176035</v>
+        <v>0.5089341653902612</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>676612</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>638208</v>
+        <v>634566</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>713002</v>
+        <v>717223</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.4051899028292814</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.382191661059268</v>
+        <v>0.3800103817606039</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4269820231911098</v>
+        <v>0.4295098060597684</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>650</v>
@@ -982,19 +982,19 @@
         <v>677355</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>639136</v>
+        <v>633719</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>719547</v>
+        <v>714607</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.4342799279273187</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.4097766706189641</v>
+        <v>0.4063030736009506</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.461331172397709</v>
+        <v>0.4581641561694036</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1305</v>
@@ -1003,19 +1003,19 @@
         <v>1353967</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1293365</v>
+        <v>1297317</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1405656</v>
+        <v>1407006</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.4192388598472254</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.4004742821060112</v>
+        <v>0.401698138718201</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.4352438759312997</v>
+        <v>0.4356618989620962</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>993252</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>956862</v>
+        <v>952641</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1031656</v>
+        <v>1035298</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.5948100971707186</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5730179768088902</v>
+        <v>0.5704901939402317</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.6178083389407321</v>
+        <v>0.6199896182393961</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>876</v>
@@ -1053,19 +1053,19 @@
         <v>882364</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>840172</v>
+        <v>845112</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>920583</v>
+        <v>926000</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.5657200720726813</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.538668827602291</v>
+        <v>0.5418358438305965</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.5902233293810359</v>
+        <v>0.5936969263990494</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1849</v>
@@ -1074,19 +1074,19 @@
         <v>1875616</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1823927</v>
+        <v>1822577</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1936218</v>
+        <v>1932266</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.5807611401527746</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.5647561240687003</v>
+        <v>0.5643381010379038</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.5995257178939889</v>
+        <v>0.598301861281799</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>147042</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>125036</v>
+        <v>127796</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>170247</v>
+        <v>168623</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2689056101290675</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2286616770420086</v>
+        <v>0.2337090684483668</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3113416911215235</v>
+        <v>0.3083717410873535</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>171</v>
@@ -1199,19 +1199,19 @@
         <v>181169</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>160987</v>
+        <v>160540</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>202046</v>
+        <v>203509</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.38884719308045</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3455302027706937</v>
+        <v>0.3445718176117716</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4336555329123885</v>
+        <v>0.4367952592183969</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>306</v>
@@ -1220,19 +1220,19 @@
         <v>328211</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>299816</v>
+        <v>300024</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>361673</v>
+        <v>360068</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3240854462629345</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2960468858342532</v>
+        <v>0.2962524798157031</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3571261084206825</v>
+        <v>0.3555418263449986</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>399776</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>376571</v>
+        <v>378195</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>421782</v>
+        <v>419022</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7310943898709326</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6886583088784766</v>
+        <v>0.6916282589126466</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7713383229579914</v>
+        <v>0.7662909315516332</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>271</v>
@@ -1270,19 +1270,19 @@
         <v>284744</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>263867</v>
+        <v>262404</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>304926</v>
+        <v>305373</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.61115280691955</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.5663444670876114</v>
+        <v>0.5632047407816031</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.6544697972293061</v>
+        <v>0.6554281823882284</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>658</v>
@@ -1291,19 +1291,19 @@
         <v>684520</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>651058</v>
+        <v>652663</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>712915</v>
+        <v>712707</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.6759145537370655</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6428738915793175</v>
+        <v>0.6444581736550015</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7039531141657468</v>
+        <v>0.7037475201842968</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>1327127</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1268004</v>
+        <v>1271963</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>1384343</v>
+        <v>1380932</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.4106765660559558</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3923809561173278</v>
+        <v>0.3936060048574851</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4283818665055228</v>
+        <v>0.427326219942221</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>1473</v>
@@ -1416,19 +1416,19 @@
         <v>1531062</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>1469091</v>
+        <v>1475005</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>1585963</v>
+        <v>1590618</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.4613358319613749</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.4426627167553541</v>
+        <v>0.4444447820239393</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.477878378661411</v>
+        <v>0.4792810034845691</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>2764</v>
@@ -1437,19 +1437,19 @@
         <v>2858190</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>2781063</v>
+        <v>2780722</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>2934903</v>
+        <v>2945061</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.4363433802622917</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.4245688393630899</v>
+        <v>0.4245167822260319</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.4480548335314721</v>
+        <v>0.4496054819986829</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>1904436</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1847220</v>
+        <v>1850631</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1963559</v>
+        <v>1959600</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.5893234339440443</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5716181334944773</v>
+        <v>0.5726737800577792</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6076190438826725</v>
+        <v>0.606393995142515</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1765</v>
@@ -1487,19 +1487,19 @@
         <v>1787697</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1732796</v>
+        <v>1728141</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>1849668</v>
+        <v>1843754</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.5386641680386252</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5221216213385891</v>
+        <v>0.520718996515431</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.5573372832446459</v>
+        <v>0.5555552179760608</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>3646</v>
@@ -1508,19 +1508,19 @@
         <v>3692132</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>3615419</v>
+        <v>3605261</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>3769259</v>
+        <v>3769600</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.5636566197377083</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.5519451664685279</v>
+        <v>0.550394518001317</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5754311606369101</v>
+        <v>0.5754832177739679</v>
       </c>
     </row>
     <row r="15">
@@ -1851,19 +1851,19 @@
         <v>251718</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>227103</v>
+        <v>224480</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>279070</v>
+        <v>282123</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2585051494625671</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2332262154506231</v>
+        <v>0.2305321968699788</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2865940897129098</v>
+        <v>0.289729952051917</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>454</v>
@@ -1872,19 +1872,19 @@
         <v>485048</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>449873</v>
+        <v>449803</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>519206</v>
+        <v>519576</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3628698075357313</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3365553414542015</v>
+        <v>0.3365026840765943</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3884237616353401</v>
+        <v>0.3887005527443487</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>691</v>
@@ -1893,19 +1893,19 @@
         <v>736766</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>696510</v>
+        <v>691798</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>786375</v>
+        <v>781445</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3188849132617178</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3014614580269305</v>
+        <v>0.2994218297235106</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3403566214169654</v>
+        <v>0.338222670689705</v>
       </c>
     </row>
     <row r="5">
@@ -1922,19 +1922,19 @@
         <v>722028</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>694676</v>
+        <v>691623</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>746643</v>
+        <v>749266</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7414948505374329</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7134059102870902</v>
+        <v>0.710270047948083</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7667737845493768</v>
+        <v>0.7694678031300212</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>792</v>
@@ -1943,19 +1943,19 @@
         <v>851651</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>817493</v>
+        <v>817123</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>886826</v>
+        <v>886896</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.6371301924642687</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6115762383646598</v>
+        <v>0.6112994472556514</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6634446585457985</v>
+        <v>0.6634973159234058</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1462</v>
@@ -1964,19 +1964,19 @@
         <v>1573679</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1524070</v>
+        <v>1529000</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1613935</v>
+        <v>1618647</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6811150867382822</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6596433785830345</v>
+        <v>0.6617773293102949</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.6985385419730695</v>
+        <v>0.7005781702764894</v>
       </c>
     </row>
     <row r="6">
@@ -2068,19 +2068,19 @@
         <v>449935</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>410051</v>
+        <v>412283</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>492983</v>
+        <v>488433</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2291964993032863</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2088799332665487</v>
+        <v>0.2100168805044835</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2511252390918359</v>
+        <v>0.2488074885785796</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>491</v>
@@ -2089,19 +2089,19 @@
         <v>530864</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>490889</v>
+        <v>492911</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>576790</v>
+        <v>572124</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3020040472091867</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2792626628999058</v>
+        <v>0.2804129739384763</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.328131165948279</v>
+        <v>0.3254769891261961</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>908</v>
@@ -2110,19 +2110,19 @@
         <v>980798</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>928774</v>
+        <v>926597</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1034538</v>
+        <v>1034249</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2635917619737859</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2496100910430058</v>
+        <v>0.2490250602509802</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2780345182219237</v>
+        <v>0.2779568023156464</v>
       </c>
     </row>
     <row r="8">
@@ -2139,19 +2139,19 @@
         <v>1513161</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1470113</v>
+        <v>1474663</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1553045</v>
+        <v>1550813</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7708035006967137</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7488747609081642</v>
+        <v>0.7511925114214204</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7911200667334513</v>
+        <v>0.7899831194955166</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1144</v>
@@ -2160,19 +2160,19 @@
         <v>1226939</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1181013</v>
+        <v>1185679</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1266914</v>
+        <v>1264892</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6979959527908134</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6718688340517213</v>
+        <v>0.6745230108738045</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7207373371000942</v>
+        <v>0.7195870260615238</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2582</v>
@@ -2181,19 +2181,19 @@
         <v>2740101</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2686361</v>
+        <v>2686650</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2792125</v>
+        <v>2794302</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7364082380262141</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7219654817780765</v>
+        <v>0.7220431976843538</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7503899089569942</v>
+        <v>0.75097493974902</v>
       </c>
     </row>
     <row r="9">
@@ -2285,19 +2285,19 @@
         <v>65711</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>50840</v>
+        <v>51360</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>83602</v>
+        <v>82608</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1365616924349187</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1056560256244193</v>
+        <v>0.1067375867078029</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1737438848078737</v>
+        <v>0.1716783129784091</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>79</v>
@@ -2306,19 +2306,19 @@
         <v>82864</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>68883</v>
+        <v>66758</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>101345</v>
+        <v>101041</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1806772709676361</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1501933051404479</v>
+        <v>0.145560178615869</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2209730207212383</v>
+        <v>0.2203089203467544</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>139</v>
@@ -2327,19 +2327,19 @@
         <v>148575</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>126315</v>
+        <v>128111</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>173323</v>
+        <v>174345</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1580902156449517</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1344046613327588</v>
+        <v>0.1363152252623297</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1844232048577447</v>
+        <v>0.1855098801936249</v>
       </c>
     </row>
     <row r="11">
@@ -2356,19 +2356,19 @@
         <v>415470</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>397579</v>
+        <v>398573</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>430341</v>
+        <v>429821</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8634383075650813</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8262561151921263</v>
+        <v>0.8283216870215909</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8943439743755807</v>
+        <v>0.8932624132921971</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>333</v>
@@ -2377,19 +2377,19 @@
         <v>375767</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>357286</v>
+        <v>357590</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>389748</v>
+        <v>391873</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8193227290323639</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7790269792787615</v>
+        <v>0.7796910796532456</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8498066948595517</v>
+        <v>0.854439821384131</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>711</v>
@@ -2398,19 +2398,19 @@
         <v>791238</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>766490</v>
+        <v>765468</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>813498</v>
+        <v>811702</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8419097843550484</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8155767951422552</v>
+        <v>0.8144901198063751</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8655953386672411</v>
+        <v>0.8636847747376702</v>
       </c>
     </row>
     <row r="12">
@@ -2502,19 +2502,19 @@
         <v>767364</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>720374</v>
+        <v>716786</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>823781</v>
+        <v>816645</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2245052016875397</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2107575393828067</v>
+        <v>0.2097077339530005</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2410108942745723</v>
+        <v>0.2389231671434625</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>1024</v>
@@ -2523,19 +2523,19 @@
         <v>1098775</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>1040234</v>
+        <v>1041668</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>1158523</v>
+        <v>1160899</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3092413112206214</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2927654184271855</v>
+        <v>0.2931690422434428</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3260568735205932</v>
+        <v>0.326725528949828</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1738</v>
@@ -2544,19 +2544,19 @@
         <v>1866139</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1793425</v>
+        <v>1792953</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1945530</v>
+        <v>1935812</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2676943958233489</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2572635802708347</v>
+        <v>0.2571959534149634</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2790828275307976</v>
+        <v>0.2776887415577916</v>
       </c>
     </row>
     <row r="14">
@@ -2573,19 +2573,19 @@
         <v>2650660</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2594243</v>
+        <v>2601379</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>2697650</v>
+        <v>2701238</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7754947983124603</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7589891057254277</v>
+        <v>0.7610768328565377</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7892424606171934</v>
+        <v>0.7902922660469995</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>2269</v>
@@ -2594,19 +2594,19 @@
         <v>2454357</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>2394609</v>
+        <v>2392233</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>2512898</v>
+        <v>2511464</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6907586887793785</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6739431264794069</v>
+        <v>0.673274471050172</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7072345815728146</v>
+        <v>0.7068309577565571</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>4755</v>
@@ -2615,19 +2615,19 @@
         <v>5105017</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>5025626</v>
+        <v>5035344</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>5177731</v>
+        <v>5178203</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.732305604176651</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7209171724692025</v>
+        <v>0.7223112584422084</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7427364197291654</v>
+        <v>0.7428040465850366</v>
       </c>
     </row>
     <row r="15">
@@ -2958,19 +2958,19 @@
         <v>354778</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>327590</v>
+        <v>325498</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>382610</v>
+        <v>379979</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4703110647863672</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.4342697941895486</v>
+        <v>0.4314965680006093</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5072071042362788</v>
+        <v>0.5037195094953357</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>491</v>
@@ -2979,19 +2979,19 @@
         <v>560857</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>528244</v>
+        <v>526212</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>591831</v>
+        <v>592851</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.5638678391195581</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.5310797016072283</v>
+        <v>0.5290374893650061</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5950082506591201</v>
+        <v>0.5960339733328189</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>850</v>
@@ -3000,19 +3000,19 @@
         <v>915635</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>872877</v>
+        <v>873152</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>960242</v>
+        <v>956844</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.523516798069055</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4990701724089714</v>
+        <v>0.4992275236302864</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5490212738675962</v>
+        <v>0.547078426202967</v>
       </c>
     </row>
     <row r="5">
@@ -3029,19 +3029,19 @@
         <v>399569</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>371737</v>
+        <v>374368</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>426757</v>
+        <v>428849</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.5296889352136328</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.4927928957637211</v>
+        <v>0.4962804905046644</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.5657302058104514</v>
+        <v>0.5685034319993907</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>401</v>
@@ -3050,19 +3050,19 @@
         <v>433803</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>402829</v>
+        <v>401809</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>466416</v>
+        <v>468448</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.4361321608804419</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.4049917493408798</v>
+        <v>0.4039660266671811</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.4689202983927718</v>
+        <v>0.4709625106349941</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>804</v>
@@ -3071,19 +3071,19 @@
         <v>833372</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>788765</v>
+        <v>792163</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>876130</v>
+        <v>875855</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.476483201930945</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.4509787261324034</v>
+        <v>0.452921573797033</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.5009298275910286</v>
+        <v>0.5007724763697129</v>
       </c>
     </row>
     <row r="6">
@@ -3175,19 +3175,19 @@
         <v>664277</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>618895</v>
+        <v>620960</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>710503</v>
+        <v>710296</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3199200992340169</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.298063830484502</v>
+        <v>0.2990581083854096</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3421826374122965</v>
+        <v>0.342083183491235</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>752</v>
@@ -3196,19 +3196,19 @@
         <v>792592</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>746887</v>
+        <v>749796</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>834866</v>
+        <v>840982</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3986279863434523</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3756407869130405</v>
+        <v>0.3771038478473996</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4198894462442072</v>
+        <v>0.4229655736095689</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1370</v>
@@ -3217,19 +3217,19 @@
         <v>1456869</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1392915</v>
+        <v>1394602</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1517157</v>
+        <v>1522187</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3584212120813325</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3426870610630112</v>
+        <v>0.3431021053167248</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3732532658946722</v>
+        <v>0.3744907345456298</v>
       </c>
     </row>
     <row r="8">
@@ -3246,19 +3246,19 @@
         <v>1412108</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1365882</v>
+        <v>1366089</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1457490</v>
+        <v>1455425</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.6800799007659831</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6578173625877035</v>
+        <v>0.657916816508765</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.701936169515498</v>
+        <v>0.7009418916145904</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1156</v>
@@ -3267,19 +3267,19 @@
         <v>1195708</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1153434</v>
+        <v>1147318</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1241413</v>
+        <v>1238504</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6013720136565477</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.5801105537557928</v>
+        <v>0.5770344263904311</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6243592130869594</v>
+        <v>0.6228961521526004</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2490</v>
@@ -3288,19 +3288,19 @@
         <v>2607816</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2547528</v>
+        <v>2542498</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2671770</v>
+        <v>2670083</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6415787879186674</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6267467341053277</v>
+        <v>0.6255092654543704</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6573129389369888</v>
+        <v>0.6568978946832754</v>
       </c>
     </row>
     <row r="9">
@@ -3392,19 +3392,19 @@
         <v>125524</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>107936</v>
+        <v>105259</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>148837</v>
+        <v>146232</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2295246832169757</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1973638017224222</v>
+        <v>0.1924699149067486</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2721539283424761</v>
+        <v>0.2673901432210196</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>148</v>
@@ -3413,19 +3413,19 @@
         <v>155886</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>134263</v>
+        <v>134052</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>177499</v>
+        <v>177987</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2838730284876476</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2444960110876612</v>
+        <v>0.2441120732899494</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3232312216390246</v>
+        <v>0.3241189657809521</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>268</v>
@@ -3434,19 +3434,19 @@
         <v>281410</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>252239</v>
+        <v>251144</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>312281</v>
+        <v>311299</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2567547436184943</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2301397759139888</v>
+        <v>0.2291402220580124</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2849211016813513</v>
+        <v>0.2840252290841046</v>
       </c>
     </row>
     <row r="11">
@@ -3463,19 +3463,19 @@
         <v>421362</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>398049</v>
+        <v>400654</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>438950</v>
+        <v>441627</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7704753167830244</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.727846071657524</v>
+        <v>0.7326098567789804</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8026361982775779</v>
+        <v>0.8075300850932514</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>378</v>
@@ -3484,19 +3484,19 @@
         <v>393254</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>371641</v>
+        <v>371153</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>414877</v>
+        <v>415088</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7161269715123525</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6767687783609755</v>
+        <v>0.6758810342190479</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7555039889123388</v>
+        <v>0.7558879267100503</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>759</v>
@@ -3505,19 +3505,19 @@
         <v>814617</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>783746</v>
+        <v>784728</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>843788</v>
+        <v>844883</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7432452563815057</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7150788983186485</v>
+        <v>0.7159747709158953</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7698602240860107</v>
+        <v>0.7708597779419876</v>
       </c>
     </row>
     <row r="12">
@@ -3609,19 +3609,19 @@
         <v>1144579</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1094121</v>
+        <v>1091400</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>1202556</v>
+        <v>1198989</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3388716012458159</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3239326413195841</v>
+        <v>0.3231271676095039</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3560365944012291</v>
+        <v>0.3549805563945802</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>1391</v>
@@ -3630,19 +3630,19 @@
         <v>1509335</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>1451383</v>
+        <v>1451437</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>1568781</v>
+        <v>1569060</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.4273193895424925</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.4109121292001675</v>
+        <v>0.4109273631733855</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4441496806272827</v>
+        <v>0.4442286849814515</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>2488</v>
@@ -3651,19 +3651,19 @@
         <v>2653914</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>2569065</v>
+        <v>2574460</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>2734251</v>
+        <v>2738730</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3840842222307694</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3718045392800504</v>
+        <v>0.3725854348636174</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3957109547537009</v>
+        <v>0.3963591661064415</v>
       </c>
     </row>
     <row r="14">
@@ -3680,19 +3680,19 @@
         <v>2233039</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2175062</v>
+        <v>2178629</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>2283497</v>
+        <v>2286218</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.6611283987541841</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6439634055987709</v>
+        <v>0.6450194436054199</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6760673586804159</v>
+        <v>0.676872832390496</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1935</v>
@@ -3701,19 +3701,19 @@
         <v>2022765</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1963319</v>
+        <v>1963040</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>2080717</v>
+        <v>2080663</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.5726806104575074</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5558503193727172</v>
+        <v>0.5557713150185484</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.5890878707998325</v>
+        <v>0.5890726368266144</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>4053</v>
@@ -3722,19 +3722,19 @@
         <v>4255804</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>4175467</v>
+        <v>4170988</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>4340653</v>
+        <v>4335258</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6159157777692306</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6042890452462991</v>
+        <v>0.6036408338935584</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6281954607199496</v>
+        <v>0.6274145651363824</v>
       </c>
     </row>
     <row r="15">
@@ -4065,19 +4065,19 @@
         <v>297056</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>273037</v>
+        <v>273075</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>318905</v>
+        <v>320815</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.5170657112572955</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.4752570859709598</v>
+        <v>0.475324154804154</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5550965170170793</v>
+        <v>0.5584210440389916</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>840</v>
@@ -4086,19 +4086,19 @@
         <v>493839</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>471917</v>
+        <v>471905</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>514857</v>
+        <v>517013</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.6047530766993697</v>
+        <v>0.6047530766993698</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.577906977079651</v>
+        <v>0.5778929951548319</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.630491179744316</v>
+        <v>0.6331323806442533</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1180</v>
@@ -4107,19 +4107,19 @@
         <v>790895</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>761423</v>
+        <v>757660</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>822822</v>
+        <v>821733</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.5685394833652655</v>
+        <v>0.5685394833652654</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.5473535112532004</v>
+        <v>0.544648340515545</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5914906522484444</v>
+        <v>0.5907078194231705</v>
       </c>
     </row>
     <row r="5">
@@ -4136,19 +4136,19 @@
         <v>277447</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>255598</v>
+        <v>253688</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>301466</v>
+        <v>301428</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.4829342887427045</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.4449034829829207</v>
+        <v>0.4415789559610085</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.5247429140290401</v>
+        <v>0.5246758451958458</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>580</v>
@@ -4157,19 +4157,19 @@
         <v>322757</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>301739</v>
+        <v>299583</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>344679</v>
+        <v>344691</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3952469233006303</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3695088202556849</v>
+        <v>0.3668676193557467</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.422093022920349</v>
+        <v>0.422107004845168</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>927</v>
@@ -4178,19 +4178,19 @@
         <v>600204</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>568277</v>
+        <v>569366</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>629676</v>
+        <v>633439</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.4314605166347346</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.4085093477515557</v>
+        <v>0.4092921805768294</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.4526464887467997</v>
+        <v>0.4553516594844551</v>
       </c>
     </row>
     <row r="6">
@@ -4282,19 +4282,19 @@
         <v>707859</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>657669</v>
+        <v>653211</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>759513</v>
+        <v>757145</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3180312499416906</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2954816365692525</v>
+        <v>0.2934788408742577</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3412385931682498</v>
+        <v>0.3401746916437612</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>1061</v>
@@ -4303,19 +4303,19 @@
         <v>815303</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>769962</v>
+        <v>773645</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>861872</v>
+        <v>856244</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.3759938980780619</v>
+        <v>0.3759938980780618</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3550837997788532</v>
+        <v>0.3567823203687931</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3974702568178475</v>
+        <v>0.3948748752600947</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1719</v>
@@ -4324,19 +4324,19 @@
         <v>1523162</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1460326</v>
+        <v>1459527</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1591475</v>
+        <v>1588210</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3466342638305877</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3323344631634901</v>
+        <v>0.332152571778228</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3621806633780122</v>
+        <v>0.3614376536041095</v>
       </c>
     </row>
     <row r="8">
@@ -4353,19 +4353,19 @@
         <v>1517894</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1466240</v>
+        <v>1468608</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1568084</v>
+        <v>1572542</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.6819687500583094</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6587614068317501</v>
+        <v>0.6598253083562389</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7045183634307474</v>
+        <v>0.7065211591257423</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1856</v>
@@ -4374,19 +4374,19 @@
         <v>1353091</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1306522</v>
+        <v>1312150</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1398432</v>
+        <v>1394749</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.6240061019219383</v>
+        <v>0.624006101921938</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6025297431821527</v>
+        <v>0.6051251247399055</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6449162002211469</v>
+        <v>0.6432176796312069</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3186</v>
@@ -4395,19 +4395,19 @@
         <v>2870985</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2802672</v>
+        <v>2805937</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2933821</v>
+        <v>2934620</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6533657361694124</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6378193366219879</v>
+        <v>0.6385623463958905</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6676655368365095</v>
+        <v>0.667847428221772</v>
       </c>
     </row>
     <row r="9">
@@ -4499,19 +4499,19 @@
         <v>166663</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>143327</v>
+        <v>143203</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>193397</v>
+        <v>193082</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2345845950003123</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2017390293216603</v>
+        <v>0.2015641900656903</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2722148003534065</v>
+        <v>0.2717711343498275</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>261</v>
@@ -4520,19 +4520,19 @@
         <v>196396</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>174471</v>
+        <v>174253</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>219588</v>
+        <v>218093</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.267391050947177</v>
+        <v>0.2673910509471769</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2375407844116743</v>
+        <v>0.2372434990288906</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2989670888966275</v>
+        <v>0.2969313531583396</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>417</v>
@@ -4541,19 +4541,19 @@
         <v>363059</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>327284</v>
+        <v>333393</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>393684</v>
+        <v>397901</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2512606290792095</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2265024688472386</v>
+        <v>0.2307297572105859</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2724552971300124</v>
+        <v>0.2753738418746994</v>
       </c>
     </row>
     <row r="11">
@@ -4570,19 +4570,19 @@
         <v>543795</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>517061</v>
+        <v>517376</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>567131</v>
+        <v>567255</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7654154049996877</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7277851996465936</v>
+        <v>0.7282288656501724</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7982609706783397</v>
+        <v>0.7984358099343098</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>742</v>
@@ -4591,19 +4591,19 @@
         <v>538093</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>514901</v>
+        <v>516396</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>560018</v>
+        <v>560236</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7326089490528229</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7010329111033724</v>
+        <v>0.7030686468416604</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7624592155883257</v>
+        <v>0.7627565009711094</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1266</v>
@@ -4612,19 +4612,19 @@
         <v>1081889</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1051264</v>
+        <v>1047047</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1117664</v>
+        <v>1111555</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7487393709207907</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7275447028699876</v>
+        <v>0.7246261581253006</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7734975311527613</v>
+        <v>0.7692702427894139</v>
       </c>
     </row>
     <row r="12">
@@ -4716,19 +4716,19 @@
         <v>1171578</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1104470</v>
+        <v>1110799</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>1226157</v>
+        <v>1234935</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.3337148452185047</v>
+        <v>0.3337148452185048</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3145998542680704</v>
+        <v>0.3164025162914629</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3492612447259939</v>
+        <v>0.351761723228207</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>2162</v>
@@ -4737,19 +4737,19 @@
         <v>1505538</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>1449000</v>
+        <v>1454255</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>1558161</v>
+        <v>1564801</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.404771072446598</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3895707890447839</v>
+        <v>0.3909836493573512</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4189192077183677</v>
+        <v>0.4207044566133554</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>3316</v>
@@ -4758,19 +4758,19 @@
         <v>2677115</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>2594528</v>
+        <v>2602947</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>2757706</v>
+        <v>2754670</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3702687947524453</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3588462022489254</v>
+        <v>0.360010632080605</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.381415245719814</v>
+        <v>0.3809953036306006</v>
       </c>
     </row>
     <row r="14">
@@ -4787,19 +4787,19 @@
         <v>2339137</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2284558</v>
+        <v>2275780</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>2406245</v>
+        <v>2399916</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.6662851547814952</v>
+        <v>0.6662851547814954</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.650738755274006</v>
+        <v>0.6482382767717931</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6854001457319293</v>
+        <v>0.683597483708537</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>3178</v>
@@ -4808,19 +4808,19 @@
         <v>2213941</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>2161318</v>
+        <v>2154678</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>2270479</v>
+        <v>2265224</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.595228927553402</v>
+        <v>0.5952289275534021</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5810807922816322</v>
+        <v>0.5792955433866446</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6104292109552161</v>
+        <v>0.6090163506426487</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>5379</v>
@@ -4829,19 +4829,19 @@
         <v>4553079</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>4472488</v>
+        <v>4475524</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>4635666</v>
+        <v>4627247</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6297312052475545</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6185847542801858</v>
+        <v>0.6190046963693994</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6411537977510744</v>
+        <v>0.6399893679193951</v>
       </c>
     </row>
     <row r="15">
